--- a/results/Auto/genero-m1_es_adjetivopositivo-m2.xlsx
+++ b/results/Auto/genero-m1_es_adjetivopositivo-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02224702946841717</v>
+        <v>2.155642747636577e-10</v>
       </c>
       <c r="E2" t="n">
         <v>2.87309376290068e-05</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007796687074005604</v>
+        <v>4.39252175965521e-07</v>
       </c>
       <c r="E3" t="n">
         <v>0.000286939408397302</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001615122746443376</v>
+        <v>4.101617656626644e-10</v>
       </c>
       <c r="E4" t="n">
         <v>0.0004637987585738301</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003044221084564924</v>
+        <v>6.124541152008334e-11</v>
       </c>
       <c r="E5" t="n">
         <v>0.003007108112797141</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00148708641063422</v>
+        <v>3.646425106307305e-10</v>
       </c>
       <c r="E6" t="n">
         <v>0.0001677491090958938</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02621500380337238</v>
+        <v>2.275982780020058e-08</v>
       </c>
       <c r="E7" t="n">
         <v>2.745763777056709e-05</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008283322094939649</v>
+        <v>2.199957854776002e-10</v>
       </c>
       <c r="E8" t="n">
         <v>1.395206709275953e-06</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01404126361012459</v>
+        <v>1.942046079506099e-09</v>
       </c>
       <c r="E9" t="n">
         <v>2.691345798666589e-06</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002246597316116095</v>
+        <v>1.215907263762972e-09</v>
       </c>
       <c r="E10" t="n">
         <v>0.0001666778407525271</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005473370547406375</v>
+        <v>1.305840213738918e-09</v>
       </c>
       <c r="E11" t="n">
         <v>5.094411790196318e-06</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005226246546953917</v>
+        <v>1.893032752775525e-08</v>
       </c>
       <c r="E12" t="n">
         <v>0.006682557053864002</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003424541326239705</v>
+        <v>1.352903566953501e-08</v>
       </c>
       <c r="E13" t="n">
         <v>0.0002917694218922406</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08277706056833267</v>
+        <v>1.22265730873039e-09</v>
       </c>
       <c r="E14" t="n">
         <v>9.866148320725188e-05</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05330685526132584</v>
+        <v>1.109450309400017e-09</v>
       </c>
       <c r="E15" t="n">
         <v>0.0002540031564421952</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0008768345578573644</v>
+        <v>6.587059231399905e-10</v>
       </c>
       <c r="E16" t="n">
         <v>1.603587043064181e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003141233930364251</v>
+        <v>1.36484157309269e-09</v>
       </c>
       <c r="E17" t="n">
         <v>0.00290645775385201</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007230768445879221</v>
+        <v>9.908276865644439e-09</v>
       </c>
       <c r="E18" t="n">
         <v>0.003851690795272589</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001270628999918699</v>
+        <v>4.361139921416068e-11</v>
       </c>
       <c r="E19" t="n">
         <v>3.5189586924389e-05</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02025599032640457</v>
+        <v>6.419826004133711e-09</v>
       </c>
       <c r="E20" t="n">
         <v>0.0001168588423752226</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01096407696604729</v>
+        <v>9.486942786907093e-09</v>
       </c>
       <c r="E21" t="n">
         <v>6.533089617732912e-05</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02667486108839512</v>
+        <v>3.864791509045062e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.001341394730843604</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001803436200134456</v>
+        <v>4.01218391843372e-09</v>
       </c>
       <c r="E23" t="n">
         <v>0.0001943596289493144</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04514983668923378</v>
+        <v>9.955845925446738e-09</v>
       </c>
       <c r="E24" t="n">
         <v>8.287097443826497e-05</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06139493733644485</v>
+        <v>5.948588732707094e-09</v>
       </c>
       <c r="E25" t="n">
         <v>0.04547681286931038</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000176210975041613</v>
+        <v>5.60602120280862e-10</v>
       </c>
       <c r="E26" t="n">
         <v>9.307955770054832e-05</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0004522333911154419</v>
+        <v>1.048625408728299e-09</v>
       </c>
       <c r="E27" t="n">
         <v>7.072093285387382e-05</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02661038748919964</v>
+        <v>2.052166969690461e-08</v>
       </c>
       <c r="E28" t="n">
         <v>6.406970351235941e-05</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00914345495402813</v>
+        <v>1.906892643788183e-09</v>
       </c>
       <c r="E29" t="n">
         <v>0.0002279429900227115</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02063124626874924</v>
+        <v>1.14361533576357e-08</v>
       </c>
       <c r="E30" t="n">
         <v>0.0003231747541576624</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0018259531352669</v>
+        <v>1.318268605388084e-09</v>
       </c>
       <c r="E31" t="n">
         <v>0.0002046548761427402</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02918965928256512</v>
+        <v>4.830773558950341e-10</v>
       </c>
       <c r="E32" t="n">
         <v>0.0003129068354610354</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.006729290820658207</v>
+        <v>1.468185351072293e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.0001444426306989044</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>6.435328396037221e-05</v>
+        <v>4.758637494467477e-12</v>
       </c>
       <c r="E34" t="n">
         <v>3.491085863061016e-06</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00142565811984241</v>
+        <v>2.013252009547273e-09</v>
       </c>
       <c r="E35" t="n">
         <v>7.123682735254988e-06</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00414639338850975</v>
+        <v>1.065207797523726e-07</v>
       </c>
       <c r="E36" t="n">
         <v>0.0002810138103086501</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002568740863353014</v>
+        <v>1.507340741113694e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.001929605146870017</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005546311847865582</v>
+        <v>2.147781508199387e-08</v>
       </c>
       <c r="E38" t="n">
         <v>2.7556703571463e-05</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01040457375347614</v>
+        <v>1.784109859848115e-09</v>
       </c>
       <c r="E39" t="n">
         <v>2.79976175079355e-05</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006331060081720352</v>
+        <v>5.08608621885287e-09</v>
       </c>
       <c r="E40" t="n">
         <v>0.0001936457265401259</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001128339790739119</v>
+        <v>5.216981513456176e-09</v>
       </c>
       <c r="E41" t="n">
         <v>0.000242289766902104</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0119536854326725</v>
+        <v>3.681824567447478e-10</v>
       </c>
       <c r="E42" t="n">
         <v>6.509519153041765e-06</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01711125671863556</v>
+        <v>3.741803311640979e-09</v>
       </c>
       <c r="E43" t="n">
         <v>0.01408892031759024</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005233790259808302</v>
+        <v>9.299691683395395e-09</v>
       </c>
       <c r="E44" t="n">
         <v>0.0003840360441245139</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0051315538585186</v>
+        <v>7.657586564846497e-09</v>
       </c>
       <c r="E45" t="n">
         <v>0.0002166432532249019</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002808351302519441</v>
+        <v>4.65567406848777e-09</v>
       </c>
       <c r="E46" t="n">
         <v>0.0007488967385143042</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005431950557976961</v>
+        <v>3.214432331422046e-10</v>
       </c>
       <c r="E47" t="n">
         <v>1.535229239379987e-05</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002261583460494876</v>
+        <v>1.217337897152504e-10</v>
       </c>
       <c r="E48" t="n">
         <v>2.072686584142502e-05</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.155485063791275</v>
+        <v>2.554174471924853e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.000130089494632557</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1045340970158577</v>
+        <v>6.937595831146837e-09</v>
       </c>
       <c r="E50" t="n">
         <v>0.002062380546703935</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.006013860926032066</v>
+        <v>4.234494710431136e-08</v>
       </c>
       <c r="E51" t="n">
         <v>0.0005630682571791112</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001003628945909441</v>
+        <v>7.106424337877115e-09</v>
       </c>
       <c r="E52" t="n">
         <v>5.881738252355717e-05</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0008242509211413562</v>
+        <v>4.084108162771827e-09</v>
       </c>
       <c r="E53" t="n">
         <v>0.0001403067290084437</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0004969151923432946</v>
+        <v>2.590901104770893e-10</v>
       </c>
       <c r="E54" t="n">
         <v>3.052907777600922e-05</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01429441012442112</v>
+        <v>1.035332886090146e-08</v>
       </c>
       <c r="E55" t="n">
         <v>0.001070334576070309</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00656618271023035</v>
+        <v>8.492781589097831e-09</v>
       </c>
       <c r="E56" t="n">
         <v>0.0006379501428455114</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0001606538717169315</v>
+        <v>1.088286172290509e-08</v>
       </c>
       <c r="E57" t="n">
         <v>2.2514519514516e-05</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>8.972054638434201e-05</v>
+        <v>4.602375425211136e-10</v>
       </c>
       <c r="E58" t="n">
         <v>0.0001237135584233329</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01060785725712776</v>
+        <v>1.085890133367684e-08</v>
       </c>
       <c r="E59" t="n">
         <v>0.0006004837923683226</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01466497499495745</v>
+        <v>1.845063546390691e-10</v>
       </c>
       <c r="E60" t="n">
         <v>0.0003671060549095273</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001602289034053683</v>
+        <v>2.076131933037573e-09</v>
       </c>
       <c r="E61" t="n">
         <v>0.0008875011699274182</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.004318765830248594</v>
+        <v>2.027667145299006e-09</v>
       </c>
       <c r="E62" t="n">
         <v>9.874864917946979e-05</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001428349409252405</v>
+        <v>1.291280526949379e-09</v>
       </c>
       <c r="E63" t="n">
         <v>3.029457184311468e-05</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001159409061074257</v>
+        <v>1.898716517345633e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.0005061534466221929</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01733935251832008</v>
+        <v>1.395599524833813e-09</v>
       </c>
       <c r="E65" t="n">
         <v>9.213761950377375e-05</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006614524405449629</v>
+        <v>1.967417695425411e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.0002872221230063587</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05170676857233047</v>
+        <v>1.963012685735066e-08</v>
       </c>
       <c r="E67" t="n">
         <v>0.0004127221181988716</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003804664593189955</v>
+        <v>3.105525170354895e-09</v>
       </c>
       <c r="E68" t="n">
         <v>0.0001158390659838915</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01066563837230206</v>
+        <v>1.76018394304478e-10</v>
       </c>
       <c r="E69" t="n">
         <v>0.0002102192811435089</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002122732577845454</v>
+        <v>5.793198809556088e-09</v>
       </c>
       <c r="E70" t="n">
         <v>0.0001395827566739172</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01922497898340225</v>
+        <v>1.276086436519108e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.004189906176179647</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00951870996505022</v>
+        <v>7.298653770249075e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0001030202838592231</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02435455285012722</v>
+        <v>9.289531277545393e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.0004286981420591474</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02243488095700741</v>
+        <v>8.282121100045003e-10</v>
       </c>
       <c r="E74" t="n">
         <v>0.001597710186615586</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004933563992381096</v>
+        <v>2.87763785022932e-10</v>
       </c>
       <c r="E75" t="n">
         <v>0.0003505994391161948</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0006221607909537852</v>
+        <v>1.007998240432073e-09</v>
       </c>
       <c r="E76" t="n">
         <v>0.0001587240694789216</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004057338926941156</v>
+        <v>3.974315099242176e-09</v>
       </c>
       <c r="E77" t="n">
         <v>6.069592927815393e-05</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01134034898132086</v>
+        <v>2.813892052699885e-08</v>
       </c>
       <c r="E78" t="n">
         <v>0.000737472262699157</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002226814161986113</v>
+        <v>4.908177686502313e-08</v>
       </c>
       <c r="E79" t="n">
         <v>0.0004465179808903486</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01420646999031305</v>
+        <v>2.184192027243625e-08</v>
       </c>
       <c r="E80" t="n">
         <v>0.009124827571213245</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.008028504438698292</v>
+        <v>1.369807201001549e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.002267186529934406</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0002497448003850877</v>
+        <v>1.687555511997729e-10</v>
       </c>
       <c r="E82" t="n">
         <v>0.0003252737806178629</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.006544645875692368</v>
+        <v>2.814345556600983e-08</v>
       </c>
       <c r="E83" t="n">
         <v>2.202235009463038e-05</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002853967482224107</v>
+        <v>6.392366191931842e-09</v>
       </c>
       <c r="E84" t="n">
         <v>0.001260829507373273</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.009639549069106579</v>
+        <v>1.847617614458841e-10</v>
       </c>
       <c r="E85" t="n">
         <v>0.0004224265285301954</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.004160971380770206</v>
+        <v>5.687179616131743e-09</v>
       </c>
       <c r="E86" t="n">
         <v>0.0007553723407909274</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01563353091478348</v>
+        <v>1.266161131496801e-08</v>
       </c>
       <c r="E87" t="n">
         <v>0.0001333671534666792</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0004096680495422333</v>
+        <v>1.836677893107819e-10</v>
       </c>
       <c r="E88" t="n">
         <v>3.352941348566674e-06</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01312210876494646</v>
+        <v>4.247546669944313e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.01311320997774601</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0004969151923432946</v>
+        <v>2.590901104770893e-10</v>
       </c>
       <c r="E90" t="n">
         <v>3.052907777600922e-05</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0307797510176897</v>
+        <v>9.638385201071742e-09</v>
       </c>
       <c r="E91" t="n">
         <v>7.009437467786483e-06</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0003214185417164117</v>
+        <v>2.411104427224586e-09</v>
       </c>
       <c r="E92" t="n">
         <v>1.277544197364477e-05</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001131509663537145</v>
+        <v>2.098564516606061e-10</v>
       </c>
       <c r="E93" t="n">
         <v>9.829741429712158e-06</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001592356362380087</v>
+        <v>8.906335224878603e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.0001226350432261825</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.008266118355095387</v>
+        <v>3.179114749229939e-10</v>
       </c>
       <c r="E95" t="n">
         <v>0.0001558515505166724</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00263018487021327</v>
+        <v>1.595767429307671e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.0003060282033402473</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005325100384652615</v>
+        <v>4.403871933789105e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.002777012065052986</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005593672394752502</v>
+        <v>1.030122209755291e-08</v>
       </c>
       <c r="E98" t="n">
         <v>0.006334939505904913</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00575317395851016</v>
+        <v>9.974687742442256e-09</v>
       </c>
       <c r="E99" t="n">
         <v>4.734188792099303e-07</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05217499285936356</v>
+        <v>1.432976670656672e-08</v>
       </c>
       <c r="E100" t="n">
         <v>0.0002793432213366032</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01807697303593159</v>
+        <v>7.02975722077781e-09</v>
       </c>
       <c r="E101" t="n">
         <v>0.001289651379920542</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
